--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dkk2-Lrp6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H2">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I2">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J2">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N2">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O2">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P2">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q2">
-        <v>5.229264623029427</v>
+        <v>5.3452830440745</v>
       </c>
       <c r="R2">
-        <v>5.229264623029427</v>
+        <v>21.381132176298</v>
       </c>
       <c r="S2">
-        <v>0.0138381569400509</v>
+        <v>0.01215930825946321</v>
       </c>
       <c r="T2">
-        <v>0.0138381569400509</v>
+        <v>0.006198483292401652</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H3">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I3">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J3">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P3">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q3">
-        <v>7.504980670442453</v>
+        <v>8.095442291967666</v>
       </c>
       <c r="R3">
-        <v>7.504980670442453</v>
+        <v>48.57265375180599</v>
       </c>
       <c r="S3">
-        <v>0.01986036428377678</v>
+        <v>0.01841529765834385</v>
       </c>
       <c r="T3">
-        <v>0.01986036428377678</v>
+        <v>0.0140814237649182</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H4">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I4">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J4">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N4">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O4">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P4">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q4">
-        <v>6.38753015970613</v>
+        <v>7.258986202151999</v>
       </c>
       <c r="R4">
-        <v>6.38753015970613</v>
+        <v>43.553917212912</v>
       </c>
       <c r="S4">
-        <v>0.01690326483384477</v>
+        <v>0.01651254950493247</v>
       </c>
       <c r="T4">
-        <v>0.01690326483384477</v>
+        <v>0.01262647019516358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H5">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I5">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J5">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N5">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O5">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P5">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q5">
-        <v>7.823423096541147</v>
+        <v>8.007293994214667</v>
       </c>
       <c r="R5">
-        <v>7.823423096541147</v>
+        <v>48.043763965288</v>
       </c>
       <c r="S5">
-        <v>0.02070305567279496</v>
+        <v>0.01821478024587234</v>
       </c>
       <c r="T5">
-        <v>0.02070305567279496</v>
+        <v>0.01392809631348942</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H6">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I6">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J6">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N6">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O6">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P6">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q6">
-        <v>3.822472305568335</v>
+        <v>4.00523651107</v>
       </c>
       <c r="R6">
-        <v>3.822472305568335</v>
+        <v>24.03141906642</v>
       </c>
       <c r="S6">
-        <v>0.01011537481398465</v>
+        <v>0.009111005907188456</v>
       </c>
       <c r="T6">
-        <v>0.01011537481398465</v>
+        <v>0.006966812998847381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.391348637191954</v>
+        <v>0.398441</v>
       </c>
       <c r="H7">
-        <v>0.391348637191954</v>
+        <v>0.796882</v>
       </c>
       <c r="I7">
-        <v>0.09811064855147385</v>
+        <v>0.08945363909080989</v>
       </c>
       <c r="J7">
-        <v>0.09811064855147385</v>
+        <v>0.06146862341190577</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N7">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O7">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P7">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q7">
-        <v>6.307103324200047</v>
+        <v>6.611953877842</v>
       </c>
       <c r="R7">
-        <v>6.307103324200047</v>
+        <v>26.447815511368</v>
       </c>
       <c r="S7">
-        <v>0.01669043200702177</v>
+        <v>0.01504069751500955</v>
       </c>
       <c r="T7">
-        <v>0.01669043200702177</v>
+        <v>0.007667336847085536</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H8">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I8">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J8">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N8">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O8">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P8">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q8">
-        <v>48.07039958503956</v>
+        <v>54.4095027690345</v>
       </c>
       <c r="R8">
-        <v>48.07039958503956</v>
+        <v>326.457016614207</v>
       </c>
       <c r="S8">
-        <v>0.127208275270523</v>
+        <v>0.1237692954625111</v>
       </c>
       <c r="T8">
-        <v>0.127208275270523</v>
+        <v>0.0946413102208703</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H9">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I9">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J9">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P9">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q9">
-        <v>68.99008669734644</v>
+        <v>82.40330515138099</v>
       </c>
       <c r="R9">
-        <v>68.99008669734644</v>
+        <v>741.6297463624289</v>
       </c>
       <c r="S9">
-        <v>0.1825678591251942</v>
+        <v>0.1874488554998004</v>
       </c>
       <c r="T9">
-        <v>0.1825678591251942</v>
+        <v>0.2150016918688507</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H10">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I10">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J10">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N10">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O10">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P10">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q10">
-        <v>58.71784070485304</v>
+        <v>73.889039478312</v>
       </c>
       <c r="R10">
-        <v>58.71784070485304</v>
+        <v>665.0013553048079</v>
       </c>
       <c r="S10">
-        <v>0.155384504979199</v>
+        <v>0.1680808295097498</v>
       </c>
       <c r="T10">
-        <v>0.155384504979199</v>
+        <v>0.1927867877291708</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H11">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I11">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J11">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N11">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O11">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P11">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q11">
-        <v>71.91739211615801</v>
+        <v>81.50604582738801</v>
       </c>
       <c r="R11">
-        <v>71.91739211615801</v>
+        <v>733.5544124464921</v>
       </c>
       <c r="S11">
-        <v>0.1903143616866783</v>
+        <v>0.185407793760104</v>
       </c>
       <c r="T11">
-        <v>0.1903143616866783</v>
+        <v>0.2126606174137763</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H12">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I12">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J12">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N12">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O12">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P12">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q12">
-        <v>35.13835775726497</v>
+        <v>40.76920253667</v>
       </c>
       <c r="R12">
-        <v>35.13835775726497</v>
+        <v>366.92282283003</v>
       </c>
       <c r="S12">
-        <v>0.0929863268191221</v>
+        <v>0.09274070185776132</v>
       </c>
       <c r="T12">
-        <v>0.0929863268191221</v>
+        <v>0.1063725235950804</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.59750112549851</v>
+        <v>4.055721</v>
       </c>
       <c r="H13">
-        <v>3.59750112549851</v>
+        <v>12.167163</v>
       </c>
       <c r="I13">
-        <v>0.9018893514485261</v>
+        <v>0.9105463609091901</v>
       </c>
       <c r="J13">
-        <v>0.9018893514485261</v>
+        <v>0.9385313765880943</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N13">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O13">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P13">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q13">
-        <v>57.97851110521654</v>
+        <v>67.30291358920201</v>
       </c>
       <c r="R13">
-        <v>57.97851110521654</v>
+        <v>403.817481535212</v>
       </c>
       <c r="S13">
-        <v>0.1534280235678093</v>
+        <v>0.1530988848192633</v>
       </c>
       <c r="T13">
-        <v>0.1534280235678093</v>
+        <v>0.1170684457603457</v>
       </c>
     </row>
   </sheetData>
